--- a/source/_static/report/TRB2_sample_r51.xlsx
+++ b/source/_static/report/TRB2_sample_r51.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\COUNTER\Release 5.1\Sample reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B7DB11E-563D-4E42-A3AE-646B4A2AD32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D612D8-C668-418E-88F0-FAA0F2B88E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8DADCBF-1E87-44C8-A31E-678288FBFA05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8DADCBF-1E87-44C8-A31E-678288FBFA05}"/>
   </bookViews>
   <sheets>
     <sheet name="TRB2_sample_r51" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Registry_Record</t>
-  </si>
-  <si>
-    <t>https://registry.projectcounter.org/platform/99999999-9999-9999-9999-999999999999</t>
   </si>
   <si>
     <t>Title</t>
@@ -349,6 +346,9 @@
   <si>
     <t>58</t>
   </si>
+  <si>
+    <t>https://registry.countermetrics.org/platform/99999999-9999-9999-9999-999999999999</t>
+  </si>
 </sst>
 </file>
 
@@ -416,9 +416,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,7 +456,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -562,7 +562,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -704,7 +704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1106,7 +1106,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1163,386 +1163,386 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z15" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z16" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>58</v>
+      <c r="M17" s="1" t="s">
+        <v>72</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>69</v>
+      <c r="R17" s="1" t="s">
+        <v>64</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Y17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
+      <c r="E18" s="1" t="s">
+        <v>83</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>59</v>
+      <c r="O18" s="1" t="s">
+        <v>68</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="P18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>69</v>
+      <c r="S18" s="1" t="s">
+        <v>91</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>69</v>
+      <c r="T18" s="1" t="s">
+        <v>92</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="U18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
+      <c r="E19" s="1" t="s">
+        <v>83</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>72</v>
+      <c r="V19" s="1" t="s">
+        <v>77</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Y19" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="Z19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25319,7 +25319,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{75D8DD65-84B5-4440-B930-18847D0CA546}"/>
+    <hyperlink ref="B13" r:id="rId1" display="https://registry.projectcounter.org/platform/99999999-9999-9999-9999-999999999999" xr:uid="{75D8DD65-84B5-4440-B930-18847D0CA546}"/>
     <hyperlink ref="J16" r:id="rId2" xr:uid="{F4580DAC-7397-4CBF-B797-8D39E26B2590}"/>
     <hyperlink ref="J17" r:id="rId3" xr:uid="{598CD5E5-3DB3-4A1B-8964-DAA693E347CE}"/>
     <hyperlink ref="J18" r:id="rId4" xr:uid="{3C0B5A44-0F43-4667-8174-182475854086}"/>
